--- a/InputData/hydgn/RHPF/Recipient Hydrogen Pathway Fractions.xlsx
+++ b/InputData/hydgn/RHPF/Recipient Hydrogen Pathway Fractions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\US\eps-us\InputData\hydgn\RHPF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\US\eps-us\InputData\hydgn\NBRHPF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626AD650-2600-4FD9-8DF7-DB8CE20BF1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6085FE48-48A0-4234-9154-4B06810AAB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31395" yWindow="1440" windowWidth="25290" windowHeight="13845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60630" yWindow="2445" windowWidth="23910" windowHeight="14415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -28,61 +28,61 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
+    <t>Source:</t>
+  </si>
+  <si>
+    <t>none needed</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>This variable specifies the source pathway and recipient pathway</t>
+  </si>
+  <si>
+    <t>for the hydrogen production pathway shifting policy.  It is used</t>
+  </si>
+  <si>
+    <t>to define the behavior of that policy lever.  It is not for BAU input</t>
+  </si>
+  <si>
+    <t>data.</t>
+  </si>
+  <si>
+    <t>For the U.S. model, it is configured to shift all pathways to</t>
+  </si>
+  <si>
+    <t>electrolysis</t>
+  </si>
+  <si>
+    <t>natural gas reforming</t>
+  </si>
+  <si>
+    <t>coal gasification</t>
+  </si>
+  <si>
+    <t>biomass gasification</t>
+  </si>
+  <si>
+    <t>thermochemical water splitting</t>
+  </si>
+  <si>
+    <t>To type (below)  / From type (right)</t>
+  </si>
+  <si>
+    <t>Ensure that every column adds to 1.</t>
+  </si>
+  <si>
+    <t>electrolysis with guaranteed clean electricity</t>
+  </si>
+  <si>
+    <t>natural gas reforming with CCS</t>
+  </si>
+  <si>
+    <t>the BAU production shares, representing a repeal of IRA tax credits</t>
+  </si>
+  <si>
     <t>RHPF Recipient Hydrogen Pathway Fractions</t>
-  </si>
-  <si>
-    <t>Source:</t>
-  </si>
-  <si>
-    <t>none needed</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>This variable specifies the source pathway and recipient pathway</t>
-  </si>
-  <si>
-    <t>for the hydrogen production pathway shifting policy.  It is used</t>
-  </si>
-  <si>
-    <t>to define the behavior of that policy lever.  It is not for BAU input</t>
-  </si>
-  <si>
-    <t>data.</t>
-  </si>
-  <si>
-    <t>For the U.S. model, it is configured to shift all pathways to</t>
-  </si>
-  <si>
-    <t>electrolysis</t>
-  </si>
-  <si>
-    <t>natural gas reforming</t>
-  </si>
-  <si>
-    <t>coal gasification</t>
-  </si>
-  <si>
-    <t>biomass gasification</t>
-  </si>
-  <si>
-    <t>To type (below)  / From type (right)</t>
-  </si>
-  <si>
-    <t>Ensure that every column adds to 1.</t>
-  </si>
-  <si>
-    <t>electrolysis with guaranteed clean electricity</t>
-  </si>
-  <si>
-    <t>natural gas reforming with CCS</t>
-  </si>
-  <si>
-    <t>electrolysis that is guaranteed to be supplied by new clean electricity sources.</t>
-  </si>
-  <si>
-    <t>hydrocarbon partial oxidation</t>
   </si>
 </sst>
 </file>
@@ -424,52 +424,52 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -496,7 +496,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B2" sqref="B2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -511,19 +511,19 @@
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>15</v>
@@ -534,59 +534,59 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="C2" s="3">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D2" s="3">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E2" s="3">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>0.05</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.05</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="C3" s="3">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="D3" s="3">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="E3" s="3">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>0.95</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.95</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -638,7 +638,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -667,25 +667,25 @@
         <v>15</v>
       </c>
       <c r="B7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">

--- a/InputData/hydgn/RHPF/Recipient Hydrogen Pathway Fractions.xlsx
+++ b/InputData/hydgn/RHPF/Recipient Hydrogen Pathway Fractions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\US\eps-us\InputData\hydgn\NBRHPF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\US\eps-us\InputData\hydgn\RHPF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6085FE48-48A0-4234-9154-4B06810AAB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626AD650-2600-4FD9-8DF7-DB8CE20BF1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60630" yWindow="2445" windowWidth="23910" windowHeight="14415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31395" yWindow="1440" windowWidth="25290" windowHeight="13845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
+    <t>RHPF Recipient Hydrogen Pathway Fractions</t>
+  </si>
+  <si>
     <t>Source:</t>
   </si>
   <si>
@@ -64,9 +67,6 @@
     <t>biomass gasification</t>
   </si>
   <si>
-    <t>thermochemical water splitting</t>
-  </si>
-  <si>
     <t>To type (below)  / From type (right)</t>
   </si>
   <si>
@@ -79,10 +79,10 @@
     <t>natural gas reforming with CCS</t>
   </si>
   <si>
-    <t>the BAU production shares, representing a repeal of IRA tax credits</t>
-  </si>
-  <si>
-    <t>RHPF Recipient Hydrogen Pathway Fractions</t>
+    <t>electrolysis that is guaranteed to be supplied by new clean electricity sources.</t>
+  </si>
+  <si>
+    <t>hydrocarbon partial oxidation</t>
   </si>
 </sst>
 </file>
@@ -424,52 +424,52 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -496,7 +496,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -511,19 +511,19 @@
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>15</v>
@@ -534,59 +534,59 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="D2" s="3">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E2" s="3">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F2" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0.05</v>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="D3" s="3">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="E3" s="3">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3">
-        <v>0.95</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.95</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0.95</v>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -638,7 +638,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -667,25 +667,25 @@
         <v>15</v>
       </c>
       <c r="B7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
